--- a/data/trans_orig/P36B08_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>330866</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>310259</v>
+        <v>310530</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>351207</v>
+        <v>350043</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6995913415885129</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6560184222784713</v>
+        <v>0.656591399504862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7426010014243879</v>
+        <v>0.7401401829275259</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>221</v>
@@ -765,19 +765,19 @@
         <v>228355</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>210848</v>
+        <v>212693</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>241534</v>
+        <v>242383</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7446033239743983</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6875165752053629</v>
+        <v>0.6935350166513189</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7875754848078218</v>
+        <v>0.7903453558444423</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>539</v>
@@ -786,19 +786,19 @@
         <v>559222</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>534012</v>
+        <v>534206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>582205</v>
+        <v>585632</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.717297715422075</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.684961956350797</v>
+        <v>0.6852111953781236</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.746777010697981</v>
+        <v>0.7511729464537475</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>142076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121735</v>
+        <v>122899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>162683</v>
+        <v>162412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3004086584114871</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.257398998575612</v>
+        <v>0.2598598170724739</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3439815777215287</v>
+        <v>0.343408600495138</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -836,19 +836,19 @@
         <v>78325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65146</v>
+        <v>64297</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>95832</v>
+        <v>93987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2553966760256017</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2124245151921778</v>
+        <v>0.2096546441555576</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3124834247946367</v>
+        <v>0.3064649833486806</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>213</v>
@@ -857,19 +857,19 @@
         <v>220401</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197418</v>
+        <v>193991</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>245611</v>
+        <v>245417</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.282702284577925</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2532229893020189</v>
+        <v>0.2488270535462526</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3150380436492028</v>
+        <v>0.3147888046218764</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>236204</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>217627</v>
+        <v>216929</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>254094</v>
+        <v>256096</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6437232991236819</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5930947691939062</v>
+        <v>0.5911928546546455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6924796619492876</v>
+        <v>0.6979340241715178</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>248</v>
@@ -982,19 +982,19 @@
         <v>256126</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>237330</v>
+        <v>237223</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>273742</v>
+        <v>273681</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6887618934334176</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6382150012881129</v>
+        <v>0.6379286339224461</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7361339850095511</v>
+        <v>0.7359680057937196</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>474</v>
@@ -1003,19 +1003,19 @@
         <v>492330</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>467052</v>
+        <v>465819</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>518275</v>
+        <v>516581</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6663928894917631</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6321767359035328</v>
+        <v>0.6305083279707465</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7015101588399558</v>
+        <v>0.6992177004101624</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>130730</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>112840</v>
+        <v>110838</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>149307</v>
+        <v>150005</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3562767008763181</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3075203380507127</v>
+        <v>0.3020659758284823</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4069052308060939</v>
+        <v>0.4088071453453549</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>115</v>
@@ -1053,19 +1053,19 @@
         <v>115739</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>98123</v>
+        <v>98184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>134535</v>
+        <v>134642</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3112381065665824</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2638660149904488</v>
+        <v>0.2640319942062804</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3617849987118871</v>
+        <v>0.3620713660775539</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>239</v>
@@ -1074,19 +1074,19 @@
         <v>246469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>220524</v>
+        <v>222218</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>271747</v>
+        <v>272980</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3336071105082369</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2984898411600442</v>
+        <v>0.3007822995898375</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3678232640964672</v>
+        <v>0.3694916720292535</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>338306</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>312043</v>
+        <v>315502</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>358634</v>
+        <v>360298</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6237327186281256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5753116713827339</v>
+        <v>0.5816896417897552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6612124710175095</v>
+        <v>0.6642798649313471</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>115</v>
@@ -1199,19 +1199,19 @@
         <v>116689</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103200</v>
+        <v>103427</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>127884</v>
+        <v>127860</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6954773226946555</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6150823761788565</v>
+        <v>0.6164354915382163</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.762205210962318</v>
+        <v>0.7620601781898574</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>443</v>
@@ -1220,19 +1220,19 @@
         <v>454994</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>427713</v>
+        <v>428100</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>479597</v>
+        <v>478976</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6406827862853635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6022681851828439</v>
+        <v>0.6028127692482238</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6753254080555986</v>
+        <v>0.6744511789523995</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>204083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183755</v>
+        <v>182091</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>230346</v>
+        <v>226887</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3762672813718743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3387875289824905</v>
+        <v>0.335720135068653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4246883286172661</v>
+        <v>0.4183103582102448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>49</v>
@@ -1270,19 +1270,19 @@
         <v>51093</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39898</v>
+        <v>39922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64582</v>
+        <v>64355</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3045226773053445</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2377947890376821</v>
+        <v>0.2379398218101428</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3849176238211434</v>
+        <v>0.383564508461784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>253</v>
@@ -1291,19 +1291,19 @@
         <v>255177</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>230574</v>
+        <v>231195</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>282458</v>
+        <v>282071</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3593172137146366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3246745919444014</v>
+        <v>0.3255488210476006</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3977318148171561</v>
+        <v>0.3971872307517761</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>801074</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>769272</v>
+        <v>764772</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>835053</v>
+        <v>831884</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6468963608275242</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6212151608818796</v>
+        <v>0.6175811616527096</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6743355211408339</v>
+        <v>0.6717770600289621</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>491</v>
@@ -1416,19 +1416,19 @@
         <v>507872</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>483086</v>
+        <v>484274</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>532914</v>
+        <v>531223</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7110220155121467</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6763216167027218</v>
+        <v>0.6779846194226357</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7460803190779284</v>
+        <v>0.7437123649212969</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1285</v>
@@ -1437,19 +1437,19 @@
         <v>1308947</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1266391</v>
+        <v>1268878</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1348531</v>
+        <v>1348450</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6703540846800071</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.648559794411442</v>
+        <v>0.6498333602887998</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.69062620485697</v>
+        <v>0.690585037222831</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>437260</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>403281</v>
+        <v>406450</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>469062</v>
+        <v>473562</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3531036391724758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.325664478859166</v>
+        <v>0.3282229399710379</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3787848391181204</v>
+        <v>0.3824188383472905</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>203</v>
@@ -1487,19 +1487,19 @@
         <v>206413</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>181371</v>
+        <v>183062</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>231199</v>
+        <v>230011</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2889779844878533</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2539196809220718</v>
+        <v>0.2562876350787031</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3236783832972781</v>
+        <v>0.3220153805773645</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>633</v>
@@ -1508,19 +1508,19 @@
         <v>643673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>604089</v>
+        <v>604170</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>686229</v>
+        <v>683742</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3296459153199928</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.30937379514303</v>
+        <v>0.309414962777169</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3514402055885581</v>
+        <v>0.3501666397112003</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>205435</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>186509</v>
+        <v>187809</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>223207</v>
+        <v>224213</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5860266227447596</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5320396626167972</v>
+        <v>0.5357476957258969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6367232817089664</v>
+        <v>0.6395952420274323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>381</v>
@@ -1633,19 +1633,19 @@
         <v>402704</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>381834</v>
+        <v>381230</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>424697</v>
+        <v>425455</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7093698978293292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6726068359708643</v>
+        <v>0.6715434076181639</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7481124945674555</v>
+        <v>0.7494471647274344</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>582</v>
@@ -1654,19 +1654,19 @@
         <v>608138</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>578380</v>
+        <v>576498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>638190</v>
+        <v>638329</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6622816670537314</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6298740409962232</v>
+        <v>0.6278248984045212</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.695009392595881</v>
+        <v>0.6951600512142945</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>145120</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>127348</v>
+        <v>126342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164046</v>
+        <v>162746</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4139733772552405</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3632767182910338</v>
+        <v>0.3604047579725677</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4679603373832028</v>
+        <v>0.4642523042741032</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>157</v>
@@ -1704,19 +1704,19 @@
         <v>164988</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>142995</v>
+        <v>142237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>185858</v>
+        <v>186462</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2906301021706708</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2518875054325447</v>
+        <v>0.2505528352725659</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3273931640291358</v>
+        <v>0.3284565923818362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>296</v>
@@ -1725,19 +1725,19 @@
         <v>310109</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>280057</v>
+        <v>279918</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>339867</v>
+        <v>341749</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3377183329462686</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.304990607404119</v>
+        <v>0.3048399487857057</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3701259590037768</v>
+        <v>0.3721751015954789</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>154351</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>137637</v>
+        <v>136945</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170671</v>
+        <v>170465</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.517607331847917</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4615592952359058</v>
+        <v>0.4592370333972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5723345571506145</v>
+        <v>0.5716432687310918</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>876</v>
@@ -1850,19 +1850,19 @@
         <v>889824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>855602</v>
+        <v>854356</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>920413</v>
+        <v>919488</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7125664326084612</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6851610946574438</v>
+        <v>0.6841632925775321</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7370614490740766</v>
+        <v>0.7363206905282286</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1034</v>
@@ -1871,19 +1871,19 @@
         <v>1044175</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1002855</v>
+        <v>1006667</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1080849</v>
+        <v>1078414</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6749850493219987</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6482744970765532</v>
+        <v>0.6507391105148227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6986921913718915</v>
+        <v>0.6971178969529616</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>143850</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127530</v>
+        <v>127736</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160564</v>
+        <v>161256</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4823926681520831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4276654428493855</v>
+        <v>0.4283567312689082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5384407047640942</v>
+        <v>0.5407629666028001</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>362</v>
@@ -1921,19 +1921,19 @@
         <v>358936</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>328347</v>
+        <v>329272</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>393158</v>
+        <v>394404</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2874335673915388</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2629385509259235</v>
+        <v>0.2636793094717714</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3148389053425562</v>
+        <v>0.3158367074224679</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>510</v>
@@ -1942,19 +1942,19 @@
         <v>502785</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>466111</v>
+        <v>468546</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>544105</v>
+        <v>540293</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3250149506780013</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3013078086281083</v>
+        <v>0.3028821030470385</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3517255029234468</v>
+        <v>0.3492608894851774</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>2066236</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2012212</v>
+        <v>2012305</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2116408</v>
+        <v>2126494</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6320008914954182</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6154767043117394</v>
+        <v>0.6155048813764027</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6473470960850247</v>
+        <v>0.6504320757632321</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2332</v>
@@ -2067,19 +2067,19 @@
         <v>2401570</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2348993</v>
+        <v>2352444</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2454669</v>
+        <v>2450879</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7111415166953265</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6955723975780372</v>
+        <v>0.696594294152953</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7268649588775632</v>
+        <v>0.7257424348083424</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4357</v>
@@ -2088,19 +2088,19 @@
         <v>4467806</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4396331</v>
+        <v>4390877</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4543152</v>
+        <v>4546729</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6722124583624692</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6614585606382632</v>
+        <v>0.6606379348447439</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6835488040074073</v>
+        <v>0.6840868611635711</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1203120</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1152948</v>
+        <v>1142862</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1257144</v>
+        <v>1257051</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3679991085045818</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3526529039149752</v>
+        <v>0.3495679242367679</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3845232956882605</v>
+        <v>0.3844951186235974</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>963</v>
@@ -2138,19 +2138,19 @@
         <v>975494</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>922395</v>
+        <v>926185</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1028071</v>
+        <v>1024620</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2888584833046735</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2731350411224366</v>
+        <v>0.2742575651916578</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3044276024219628</v>
+        <v>0.303405705847047</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2144</v>
@@ -2159,19 +2159,19 @@
         <v>2178614</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2103268</v>
+        <v>2099691</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2250089</v>
+        <v>2255543</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3277875416375307</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3164511959925929</v>
+        <v>0.315913138836429</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3385414393617368</v>
+        <v>0.3393620651552562</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>337475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>317001</v>
+        <v>317649</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>353530</v>
+        <v>354763</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7756082624094937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7285548194337443</v>
+        <v>0.7300421247135164</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8125064588468843</v>
+        <v>0.8153406046259537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>245</v>
@@ -2526,19 +2526,19 @@
         <v>273155</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258585</v>
+        <v>259689</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>283014</v>
+        <v>284775</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8740420336203526</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8274207341996992</v>
+        <v>0.830952970332555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9055895831719062</v>
+        <v>0.9112231857044191</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>560</v>
@@ -2547,19 +2547,19 @@
         <v>610630</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>588848</v>
+        <v>585621</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>632798</v>
+        <v>631588</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8167548721943684</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7876201124468272</v>
+        <v>0.7833045624391086</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8464058327025067</v>
+        <v>0.8447883929903907</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>97635</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>81580</v>
+        <v>80347</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118109</v>
+        <v>117461</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2243917375905063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1874935411531156</v>
+        <v>0.1846593953740463</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2714451805662552</v>
+        <v>0.2699578752864836</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -2597,19 +2597,19 @@
         <v>39364</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29505</v>
+        <v>27744</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53934</v>
+        <v>52830</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1259579663796474</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09441041682809388</v>
+        <v>0.08877681429558093</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1725792658003009</v>
+        <v>0.1690470296674451</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -2618,19 +2618,19 @@
         <v>136999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>114831</v>
+        <v>116041</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>158781</v>
+        <v>162008</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1832451278056316</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1535941672974933</v>
+        <v>0.1552116070096091</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2123798875531728</v>
+        <v>0.2166954375608912</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>314352</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>295034</v>
+        <v>293841</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>332744</v>
+        <v>331915</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7524351169033748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7061944640401012</v>
+        <v>0.7033383676913223</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7964569856658851</v>
+        <v>0.7944732706768306</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>239</v>
@@ -2743,19 +2743,19 @@
         <v>264180</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248500</v>
+        <v>247034</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>277643</v>
+        <v>279013</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.788321269534987</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.741532388393993</v>
+        <v>0.737158833084251</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8284947469620965</v>
+        <v>0.8325824680189252</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>519</v>
@@ -2764,19 +2764,19 @@
         <v>578532</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>553871</v>
+        <v>553068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>602718</v>
+        <v>600009</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7684081507772844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.735652425429293</v>
+        <v>0.734585898059416</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8005323722594802</v>
+        <v>0.7969341397594667</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>103428</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>85036</v>
+        <v>85865</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>122746</v>
+        <v>123939</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2475648830966252</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2035430143341147</v>
+        <v>0.2055267293231698</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2938055359598987</v>
+        <v>0.296661632308678</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -2814,19 +2814,19 @@
         <v>70937</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57474</v>
+        <v>56104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86617</v>
+        <v>88083</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.211678730465013</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1715052530379036</v>
+        <v>0.1674175319810749</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.258467611606007</v>
+        <v>0.262841166915749</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>158</v>
@@ -2835,19 +2835,19 @@
         <v>174365</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>150179</v>
+        <v>152888</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>199026</v>
+        <v>199829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2315918492227156</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1994676277405197</v>
+        <v>0.2030658602405333</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.264347574570707</v>
+        <v>0.2654141019405839</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>467802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>444639</v>
+        <v>444057</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>489318</v>
+        <v>488722</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7432332108700064</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7064321976974782</v>
+        <v>0.7055082705353072</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7774168207733074</v>
+        <v>0.7764696630305969</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>197</v>
@@ -2960,19 +2960,19 @@
         <v>210078</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194464</v>
+        <v>194834</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>221658</v>
+        <v>222055</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8075911088975281</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7475688999786039</v>
+        <v>0.7489885564277428</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8521068449403764</v>
+        <v>0.8536328796095748</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>631</v>
@@ -2981,19 +2981,19 @@
         <v>677880</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>650936</v>
+        <v>648054</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>701804</v>
+        <v>703346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7620533913557422</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7317633611114456</v>
+        <v>0.7285235703142858</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7889485011310944</v>
+        <v>0.7906814964931658</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>161613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>140097</v>
+        <v>140693</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>184776</v>
+        <v>185358</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2567667891299936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2225831792266928</v>
+        <v>0.2235303369694031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2935678023025219</v>
+        <v>0.2944917294646933</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>47</v>
@@ -3031,19 +3031,19 @@
         <v>50051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38471</v>
+        <v>38074</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65665</v>
+        <v>65295</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1924088911024719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1478931550596237</v>
+        <v>0.1463671203904253</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2524311000213969</v>
+        <v>0.2510114435722579</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>204</v>
@@ -3052,19 +3052,19 @@
         <v>211664</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>187740</v>
+        <v>186198</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>238608</v>
+        <v>241490</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2379466086442577</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2110514988689056</v>
+        <v>0.2093185035068341</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2682366388885544</v>
+        <v>0.2714764296857142</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>819012</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>785974</v>
+        <v>786692</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>851670</v>
+        <v>850201</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7084953568528256</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6799156674771353</v>
+        <v>0.6805361145985035</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7367462534253375</v>
+        <v>0.7354754468945315</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>555</v>
@@ -3177,19 +3177,19 @@
         <v>596960</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>573813</v>
+        <v>573678</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>621441</v>
+        <v>618450</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7825856089232676</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7522403312061304</v>
+        <v>0.752063851130741</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8146793517062355</v>
+        <v>0.8107574345529295</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1315</v>
@@ -3198,19 +3198,19 @@
         <v>1415972</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1370892</v>
+        <v>1378779</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1452296</v>
+        <v>1455799</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7379495132075924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7144553353201114</v>
+        <v>0.7185659596533798</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.756880217289405</v>
+        <v>0.7587055312641238</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>336976</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>304318</v>
+        <v>305787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>370014</v>
+        <v>369296</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2915046431471744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2632537465746624</v>
+        <v>0.2645245531054685</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3200843325228646</v>
+        <v>0.3194638854014963</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -3248,19 +3248,19 @@
         <v>165845</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141364</v>
+        <v>144355</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>188992</v>
+        <v>189127</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2174143910767324</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1853206482937645</v>
+        <v>0.1892425654470704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2477596687938698</v>
+        <v>0.2479361488692589</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>473</v>
@@ -3269,19 +3269,19 @@
         <v>502821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>466497</v>
+        <v>462994</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>547901</v>
+        <v>540014</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2620504867924076</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.243119782710595</v>
+        <v>0.2412944687358765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2855446646798886</v>
+        <v>0.2814340403466204</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>359133</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>335188</v>
+        <v>339819</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>377923</v>
+        <v>380222</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7048345560156017</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6578397230447929</v>
+        <v>0.6669299193184157</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7417113120628177</v>
+        <v>0.746224431216574</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>553</v>
@@ -3394,19 +3394,19 @@
         <v>598529</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>571931</v>
+        <v>574991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>619161</v>
+        <v>623754</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7871531423557915</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7521731667306832</v>
+        <v>0.7561963178342396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8142866306650861</v>
+        <v>0.8203273251925975</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>892</v>
@@ -3415,19 +3415,19 @@
         <v>957662</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>925795</v>
+        <v>925119</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>989385</v>
+        <v>989138</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7541240763534637</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.729029591756914</v>
+        <v>0.728497797832991</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7791044624190813</v>
+        <v>0.7789103050693011</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>150395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131605</v>
+        <v>129306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>174340</v>
+        <v>169709</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2951654439843983</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.258288687937182</v>
+        <v>0.2537755687834258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3421602769552067</v>
+        <v>0.3330700806815836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>149</v>
@@ -3465,19 +3465,19 @@
         <v>161843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141211</v>
+        <v>136618</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>188441</v>
+        <v>185381</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2128468576442085</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1857133693349137</v>
+        <v>0.1796726748074028</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2478268332693167</v>
+        <v>0.2438036821657605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>296</v>
@@ -3486,19 +3486,19 @@
         <v>312238</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>280515</v>
+        <v>280762</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>344105</v>
+        <v>344781</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2458759236465363</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2208955375809193</v>
+        <v>0.2210896949306988</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2709704082430861</v>
+        <v>0.2715022021670091</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>133613</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>116952</v>
+        <v>118025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>149260</v>
+        <v>150913</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5006437025442669</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4382163464282208</v>
+        <v>0.4422360210332615</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5592724302254236</v>
+        <v>0.5654680168172107</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>819</v>
@@ -3611,19 +3611,19 @@
         <v>873883</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>844866</v>
+        <v>843604</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>901414</v>
+        <v>900220</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7877424827532769</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7615855130965608</v>
+        <v>0.7604478627281483</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8125601691794129</v>
+        <v>0.8114835855423823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>951</v>
@@ -3632,19 +3632,19 @@
         <v>1007496</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>973649</v>
+        <v>975998</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1039869</v>
+        <v>1039752</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.732067705775054</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7074742323880927</v>
+        <v>0.7091809874960331</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7555904497918096</v>
+        <v>0.755505769082736</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>133269</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>117622</v>
+        <v>115969</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>149930</v>
+        <v>148857</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4993562974557331</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4407275697745761</v>
+        <v>0.4345319831827898</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5617836535717792</v>
+        <v>0.5577639789667388</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>225</v>
@@ -3682,19 +3682,19 @@
         <v>235468</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>207937</v>
+        <v>209131</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>264485</v>
+        <v>265747</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2122575172467231</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1874398308205871</v>
+        <v>0.1885164144576177</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2384144869034392</v>
+        <v>0.2395521372718516</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>358</v>
@@ -3703,19 +3703,19 @@
         <v>368737</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>336364</v>
+        <v>336481</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>402584</v>
+        <v>400235</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.267932294224946</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2444095502081904</v>
+        <v>0.244494230917264</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2925257676119073</v>
+        <v>0.2908190125039669</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>2431387</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2374372</v>
+        <v>2368926</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2484254</v>
+        <v>2481169</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7120347772784344</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6953378102443638</v>
+        <v>0.6937429973174295</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7275168649534784</v>
+        <v>0.7266133745878048</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2608</v>
@@ -3828,19 +3828,19 @@
         <v>2816785</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2765546</v>
+        <v>2768688</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2861111</v>
+        <v>2863572</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7956360680900604</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7811629268504069</v>
+        <v>0.7820505935727468</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8081564704576518</v>
+        <v>0.8088517485477321</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4868</v>
@@ -3849,19 +3849,19 @@
         <v>5248172</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5168727</v>
+        <v>5171878</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5320014</v>
+        <v>5320370</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7545902427559998</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7431674637507143</v>
+        <v>0.7436205247910468</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7649197681777991</v>
+        <v>0.7649710143594279</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>983316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>930449</v>
+        <v>933534</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1040331</v>
+        <v>1045777</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2879652227215656</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2724831350465215</v>
+        <v>0.2733866254121952</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3046621897556361</v>
+        <v>0.3062570026825705</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>675</v>
@@ -3899,19 +3899,19 @@
         <v>723508</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>679182</v>
+        <v>676721</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>774747</v>
+        <v>771605</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2043639319099396</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1918435295423482</v>
+        <v>0.1911482514522678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2188370731495934</v>
+        <v>0.2179494064272533</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1613</v>
@@ -3920,19 +3920,19 @@
         <v>1706824</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1634982</v>
+        <v>1634626</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1786269</v>
+        <v>1783118</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2454097572440001</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2350802318221998</v>
+        <v>0.2350289856405722</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2568325362492854</v>
+        <v>0.2563794752089533</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>339337</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>321025</v>
+        <v>320817</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>355946</v>
+        <v>356354</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7908264309939386</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7481486474575673</v>
+        <v>0.7476659591683344</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8295338756534562</v>
+        <v>0.8304843819981456</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>270</v>
@@ -4287,19 +4287,19 @@
         <v>283942</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>268412</v>
+        <v>268807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>295830</v>
+        <v>297217</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8205244125617677</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7756479927738199</v>
+        <v>0.7767883841820287</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8548794234106657</v>
+        <v>0.8588875016880254</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>585</v>
@@ -4308,19 +4308,19 @@
         <v>623279</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>600950</v>
+        <v>599009</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>646394</v>
+        <v>644183</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8040846113983807</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7752784788401664</v>
+        <v>0.772774172491711</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.833905117069197</v>
+        <v>0.8310524741551631</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>89755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73146</v>
+        <v>72738</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108067</v>
+        <v>108275</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2091735690060614</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1704661243465445</v>
+        <v>0.1695156180018546</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2518513525424328</v>
+        <v>0.2523340408316657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -4358,19 +4358,19 @@
         <v>62107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50219</v>
+        <v>48832</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>77637</v>
+        <v>77242</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1794755874382323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1451205765893345</v>
+        <v>0.1411124983119751</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2243520072261809</v>
+        <v>0.2232116158179715</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>142</v>
@@ -4379,19 +4379,19 @@
         <v>151862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>128747</v>
+        <v>130958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>174191</v>
+        <v>176132</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1959153886016192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1660948829308027</v>
+        <v>0.1689475258448372</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2247215211598334</v>
+        <v>0.2272258275082894</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>295700</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>279497</v>
+        <v>278565</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>311470</v>
+        <v>310449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.786145975399498</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7430676967183417</v>
+        <v>0.7405907822247678</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8280721196350409</v>
+        <v>0.8253574906864466</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>272</v>
@@ -4504,19 +4504,19 @@
         <v>291184</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>275016</v>
+        <v>274814</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>305587</v>
+        <v>306338</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7914518029116497</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7475056865857704</v>
+        <v>0.7469569489726602</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8306002767406895</v>
+        <v>0.8326426223658606</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>549</v>
@@ -4525,19 +4525,19 @@
         <v>586884</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>564313</v>
+        <v>565188</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>606748</v>
+        <v>609494</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7887695519992951</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7584347213409515</v>
+        <v>0.7596105674156494</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8154665108366921</v>
+        <v>0.8191576708247299</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>80439</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>64669</v>
+        <v>65690</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>96642</v>
+        <v>97574</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2138540246005019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.171927880364959</v>
+        <v>0.1746425093135533</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2569323032816583</v>
+        <v>0.2594092177752322</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>76</v>
@@ -4575,19 +4575,19 @@
         <v>76727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>62324</v>
+        <v>61573</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92895</v>
+        <v>93097</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2085481970883503</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1693997232593105</v>
+        <v>0.1673573776341394</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2524943134142296</v>
+        <v>0.2530430510273398</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>152</v>
@@ -4596,19 +4596,19 @@
         <v>157166</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137302</v>
+        <v>134556</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>179737</v>
+        <v>178862</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2112304480007048</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1845334891633079</v>
+        <v>0.1808423291752702</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2415652786590491</v>
+        <v>0.2403894325843507</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>365258</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>343707</v>
+        <v>341181</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>385989</v>
+        <v>384621</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6998429905773743</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.658551601193662</v>
+        <v>0.6537105651636702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7395648954064743</v>
+        <v>0.7369432044039466</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -4721,19 +4721,19 @@
         <v>131496</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120330</v>
+        <v>119803</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>140894</v>
+        <v>141040</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7960622871089778</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7284648586819468</v>
+        <v>0.7252728246399468</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8529552439672917</v>
+        <v>0.853841838018144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>477</v>
@@ -4742,19 +4742,19 @@
         <v>496753</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>471206</v>
+        <v>470546</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>519479</v>
+        <v>517665</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7229747976574351</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6857934195157618</v>
+        <v>0.6848333250838716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7560505259065368</v>
+        <v>0.7534100632355586</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>156656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>135925</v>
+        <v>137293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178207</v>
+        <v>180733</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3001570094226257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2604351045935256</v>
+        <v>0.2630567955960536</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.341448398806338</v>
+        <v>0.3462894348363298</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -4792,19 +4792,19 @@
         <v>33687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24289</v>
+        <v>24143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44853</v>
+        <v>45380</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2039377128910222</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1470447560327088</v>
+        <v>0.1461581619818561</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2715351413180533</v>
+        <v>0.2747271753600534</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>177</v>
@@ -4813,19 +4813,19 @@
         <v>190343</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>167617</v>
+        <v>169431</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>215890</v>
+        <v>216550</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2770252023425649</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2439494740934633</v>
+        <v>0.2465899367644415</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3142065804842385</v>
+        <v>0.3151666749161286</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>808986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>778056</v>
+        <v>778647</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>841014</v>
+        <v>843145</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7104796042931478</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6833157714349481</v>
+        <v>0.6838347888916981</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.738607285352905</v>
+        <v>0.7404789224393328</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>603</v>
@@ -4938,19 +4938,19 @@
         <v>625717</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>597479</v>
+        <v>599996</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>649535</v>
+        <v>649656</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7595048526529624</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7252296032492902</v>
+        <v>0.72828507549855</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7884163183406949</v>
+        <v>0.7885633126195979</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1381</v>
@@ -4959,19 +4959,19 @@
         <v>1434702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1395680</v>
+        <v>1395150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1473880</v>
+        <v>1474087</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7310602038432555</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7111763463640224</v>
+        <v>0.7109060567866413</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7510238051939661</v>
+        <v>0.7511292850997062</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>329662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>297634</v>
+        <v>295503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360592</v>
+        <v>360001</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2895203957068521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2613927146470951</v>
+        <v>0.2595210775606673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.316684228565052</v>
+        <v>0.3161652111083021</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -5009,19 +5009,19 @@
         <v>198131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>174313</v>
+        <v>174192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>226369</v>
+        <v>223852</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2404951473470376</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2115836816593053</v>
+        <v>0.2114366873804022</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2747703967507099</v>
+        <v>0.2717149245014501</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>508</v>
@@ -5030,19 +5030,19 @@
         <v>527793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>488615</v>
+        <v>488408</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>566815</v>
+        <v>567345</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2689397961567445</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.248976194806034</v>
+        <v>0.2488707149002938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2888236536359776</v>
+        <v>0.2890939432133587</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>447365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>425296</v>
+        <v>424249</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>468996</v>
+        <v>470573</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.725428023921988</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6896412919539544</v>
+        <v>0.6879444892357989</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7605044742132394</v>
+        <v>0.7630615713683067</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>543</v>
@@ -5155,19 +5155,19 @@
         <v>574456</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>551523</v>
+        <v>552573</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>595452</v>
+        <v>597847</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7804145891110107</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7492593791983571</v>
+        <v>0.7506851645483104</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8089377300901444</v>
+        <v>0.8121915070461446</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>975</v>
@@ -5176,19 +5176,19 @@
         <v>1021821</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>988274</v>
+        <v>991037</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1051574</v>
+        <v>1055278</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7553479358957782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7305493942094827</v>
+        <v>0.7325918949928573</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.777341637763432</v>
+        <v>0.7800801403353239</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>169326</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>147695</v>
+        <v>146118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191395</v>
+        <v>192442</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2745719760780119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2394955257867606</v>
+        <v>0.2369384286316935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3103587080460456</v>
+        <v>0.3120555107642013</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>154</v>
@@ -5226,19 +5226,19 @@
         <v>161635</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140639</v>
+        <v>138244</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>184568</v>
+        <v>183518</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2195854108889893</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1910622699098556</v>
+        <v>0.1878084929538554</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2507406208016429</v>
+        <v>0.2493148354516897</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>316</v>
@@ -5247,19 +5247,19 @@
         <v>330961</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>301208</v>
+        <v>297504</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>364508</v>
+        <v>361745</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2446520641042219</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2226583622365679</v>
+        <v>0.2199198596646762</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2694506057905173</v>
+        <v>0.2674081050071429</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>179102</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>161018</v>
+        <v>160827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>194640</v>
+        <v>193749</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6261006529538612</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5628834522195173</v>
+        <v>0.5622149312444433</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6804183220913839</v>
+        <v>0.6773021984461227</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>740</v>
@@ -5372,19 +5372,19 @@
         <v>813092</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>784469</v>
+        <v>783111</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>838933</v>
+        <v>840555</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7558327378581013</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.729225951871364</v>
+        <v>0.7279631163738038</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7798547949776266</v>
+        <v>0.7813618215388274</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>909</v>
@@ -5393,19 +5393,19 @@
         <v>992194</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>959401</v>
+        <v>957974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1026925</v>
+        <v>1025304</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7285815431248772</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7045008306379335</v>
+        <v>0.7034533199048217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7540853226648878</v>
+        <v>0.7528946373015583</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>106958</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91420</v>
+        <v>92311</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>125042</v>
+        <v>125233</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3738993470461388</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3195816779086164</v>
+        <v>0.3226978015538774</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4371165477804829</v>
+        <v>0.4377850687555568</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -5443,19 +5443,19 @@
         <v>262664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>236823</v>
+        <v>235201</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>291287</v>
+        <v>292645</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2441672621418987</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2201452050223734</v>
+        <v>0.2186381784611726</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.270774048128636</v>
+        <v>0.2720368836261961</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>348</v>
@@ -5464,19 +5464,19 @@
         <v>369622</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>334891</v>
+        <v>336512</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>402415</v>
+        <v>403842</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2714184568751228</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2459146773351122</v>
+        <v>0.2471053626984418</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2954991693620665</v>
+        <v>0.2965466800951783</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>2435748</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2381193</v>
+        <v>2384437</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2486714</v>
+        <v>2486915</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7230865458006364</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7068909778195018</v>
+        <v>0.7078540046705425</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7382163757215876</v>
+        <v>0.7382762849189887</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2547</v>
@@ -5589,19 +5589,19 @@
         <v>2719886</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2665571</v>
+        <v>2668068</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2772262</v>
+        <v>2768664</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.773829621845705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7583765022113509</v>
+        <v>0.7590871736136293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7887311644837257</v>
+        <v>0.7877073707829386</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4876</v>
@@ -5610,19 +5610,19 @@
         <v>5155634</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5072672</v>
+        <v>5089359</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5225990</v>
+        <v>5231182</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7489973134078551</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7369448793184661</v>
+        <v>0.739369132792547</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7592184450745024</v>
+        <v>0.7599727242766119</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>932795</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>881829</v>
+        <v>881628</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>987350</v>
+        <v>984106</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2769134541993636</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2617836242784126</v>
+        <v>0.2617237150810113</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2931090221804982</v>
+        <v>0.2921459953294575</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>763</v>
@@ -5660,19 +5660,19 @@
         <v>794952</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>742576</v>
+        <v>746174</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>849267</v>
+        <v>846770</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.226170378154295</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2112688355162747</v>
+        <v>0.2122926292170615</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2416234977886491</v>
+        <v>0.2409128263863708</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1643</v>
@@ -5681,19 +5681,19 @@
         <v>1727747</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1657391</v>
+        <v>1652199</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1810709</v>
+        <v>1794022</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2510026865921449</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2407815549254975</v>
+        <v>0.2400272757233881</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2630551206815339</v>
+        <v>0.2606308672074529</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>530889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>521343</v>
+        <v>520871</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>538366</v>
+        <v>537416</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9641687895734768</v>
+        <v>0.9641687895734766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9468320530419733</v>
+        <v>0.9459749590707522</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9777489351929347</v>
+        <v>0.9760235005131901</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>676</v>
@@ -6048,19 +6048,19 @@
         <v>478634</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>467949</v>
+        <v>468375</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>483705</v>
+        <v>483735</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9799821791747027</v>
+        <v>0.9799821791747023</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9581057613785106</v>
+        <v>0.9589773799786213</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9903649081072465</v>
+        <v>0.9904255355850653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1209</v>
@@ -6069,19 +6069,19 @@
         <v>1009523</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>996960</v>
+        <v>997390</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1020058</v>
+        <v>1019229</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9716021051911579</v>
+        <v>0.9716021051911577</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.959510773162224</v>
+        <v>0.9599250829934588</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9817415698313362</v>
+        <v>0.9809433732902889</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>19729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12252</v>
+        <v>13202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29275</v>
+        <v>29747</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03583121042652328</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02225106480706533</v>
+        <v>0.0239764994868101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05316794695802671</v>
+        <v>0.05402504092924766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -6119,19 +6119,19 @@
         <v>9777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4706</v>
+        <v>4676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20462</v>
+        <v>20036</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02001782082529753</v>
+        <v>0.02001782082529752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009635091892753427</v>
+        <v>0.009574464414934546</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04189423862148912</v>
+        <v>0.04102262002137815</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -6140,19 +6140,19 @@
         <v>29506</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18971</v>
+        <v>19800</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42069</v>
+        <v>41639</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02839789480884231</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01825843016866375</v>
+        <v>0.01905662670971114</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04048922683777594</v>
+        <v>0.04007491700654137</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>461482</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>449111</v>
+        <v>449285</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>469739</v>
+        <v>470423</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9564575670608023</v>
+        <v>0.9564575670608028</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.930817927705185</v>
+        <v>0.9311778568861712</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9735698251843444</v>
+        <v>0.9749872509059498</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>575</v>
@@ -6265,19 +6265,19 @@
         <v>410675</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>402031</v>
+        <v>401395</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>416203</v>
+        <v>415857</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9727756435909907</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9523013979877591</v>
+        <v>0.9507943204058504</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9858716690598276</v>
+        <v>0.9850519199042043</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1036</v>
@@ -6286,19 +6286,19 @@
         <v>872157</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>858348</v>
+        <v>857998</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>882658</v>
+        <v>882128</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9640725510892889</v>
+        <v>0.9640725510892888</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9488085072448709</v>
+        <v>0.9484212167268852</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9756804635653303</v>
+        <v>0.9750943486470004</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>21009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12752</v>
+        <v>12068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>33380</v>
+        <v>33206</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0435424329391975</v>
+        <v>0.04354243293919751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02643017481565553</v>
+        <v>0.02501274909404996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06918207229481532</v>
+        <v>0.06882214311382769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -6336,19 +6336,19 @@
         <v>11493</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5965</v>
+        <v>6311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20137</v>
+        <v>20773</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02722435640900936</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01412833094017231</v>
+        <v>0.01494808009579609</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04769860201224048</v>
+        <v>0.04920567959414952</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -6357,19 +6357,19 @@
         <v>32502</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22001</v>
+        <v>22531</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>46311</v>
+        <v>46661</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03592744891071117</v>
+        <v>0.03592744891071116</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02431953643466982</v>
+        <v>0.02490565135299969</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0511914927551292</v>
+        <v>0.05157878327311503</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>448960</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>437193</v>
+        <v>436304</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>457677</v>
+        <v>457036</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9519685031809002</v>
+        <v>0.9519685031809001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.927018138717647</v>
+        <v>0.9251328038895358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9704527098505417</v>
+        <v>0.9690928532118223</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>277</v>
@@ -6482,19 +6482,19 @@
         <v>178678</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>172357</v>
+        <v>172768</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>182819</v>
+        <v>182763</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9529627766767518</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9192502075455818</v>
+        <v>0.9214428841745816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9750481342035675</v>
+        <v>0.9747507206885323</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>745</v>
@@ -6503,19 +6503,19 @@
         <v>627637</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>615037</v>
+        <v>614343</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>637496</v>
+        <v>637213</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9522513449885126</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9331343528707021</v>
+        <v>0.9320812753314481</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9672081408337945</v>
+        <v>0.9667786872248505</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>22652</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13935</v>
+        <v>14576</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34419</v>
+        <v>35308</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04803149681909998</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02954729014945836</v>
+        <v>0.03090714678817781</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07298186128235296</v>
+        <v>0.07486719611046425</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -6553,19 +6553,19 @@
         <v>8819</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4678</v>
+        <v>4734</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15140</v>
+        <v>14729</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04703722332324829</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02495186579643204</v>
+        <v>0.02524927931146774</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08074979245441768</v>
+        <v>0.07855711582541831</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -6574,19 +6574,19 @@
         <v>31472</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21613</v>
+        <v>21896</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>44072</v>
+        <v>44766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04774865501148751</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03279185916620564</v>
+        <v>0.0332213127751495</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06686564712929796</v>
+        <v>0.06791872466855187</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>1061838</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1043350</v>
+        <v>1044404</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1078629</v>
+        <v>1077507</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9405519167990091</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9241758922491341</v>
+        <v>0.9251092437429677</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9554248911979248</v>
+        <v>0.9544310687982012</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1178</v>
@@ -6699,19 +6699,19 @@
         <v>819520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>806163</v>
+        <v>806535</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>829657</v>
+        <v>830368</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.952222148887821</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9367013144036638</v>
+        <v>0.9371345579919047</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9640001110397242</v>
+        <v>0.9648263112907872</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2232</v>
@@ -6720,19 +6720,19 @@
         <v>1881358</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1857193</v>
+        <v>1860223</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1899041</v>
+        <v>1903528</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9456001209352868</v>
+        <v>0.9456001209352867</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9334540402443169</v>
+        <v>0.9349772858287123</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9544875520713231</v>
+        <v>0.9567428340425713</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>67114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50323</v>
+        <v>51445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85602</v>
+        <v>84548</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05944808320099092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04457510880207493</v>
+        <v>0.04556893120179889</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07582410775086589</v>
+        <v>0.07489075625703243</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -6770,19 +6770,19 @@
         <v>41120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30983</v>
+        <v>30272</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54477</v>
+        <v>54105</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04777785111217906</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03599988896027581</v>
+        <v>0.0351736887092132</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06329868559633624</v>
+        <v>0.0628654420080957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>112</v>
@@ -6791,19 +6791,19 @@
         <v>108234</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90551</v>
+        <v>86064</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>132399</v>
+        <v>129369</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05439987906471334</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04551244792867696</v>
+        <v>0.043257165957429</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06654595975568321</v>
+        <v>0.0650227141712879</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>527707</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>511094</v>
+        <v>512429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>539200</v>
+        <v>540047</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9308944795552275</v>
+        <v>0.9308944795552273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9015887677787695</v>
+        <v>0.9039429163570493</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9511681841848891</v>
+        <v>0.9526624830064836</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1228</v>
@@ -6916,19 +6916,19 @@
         <v>788969</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>776844</v>
+        <v>776410</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>797924</v>
+        <v>797075</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9512187063515075</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9365999104871725</v>
+        <v>0.936076618765083</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9620150013771452</v>
+        <v>0.9609915062840656</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1738</v>
@@ -6937,19 +6937,19 @@
         <v>1316677</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1296122</v>
+        <v>1299236</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1332826</v>
+        <v>1332730</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.942967373995518</v>
+        <v>0.9429673739955177</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9282465729861442</v>
+        <v>0.9304767382460284</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9545329593934353</v>
+        <v>0.9544643124830526</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>39175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27682</v>
+        <v>26835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55788</v>
+        <v>54453</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0691055204447724</v>
+        <v>0.06910552044477239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04883181581511099</v>
+        <v>0.04733751699351639</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09841123222123065</v>
+        <v>0.09605708364295064</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -6987,19 +6987,19 @@
         <v>40461</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31506</v>
+        <v>32355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52586</v>
+        <v>53020</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04878129364849263</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03798499862285484</v>
+        <v>0.03900849371593425</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06340008951282747</v>
+        <v>0.06392338123491687</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>95</v>
@@ -7008,19 +7008,19 @@
         <v>79635</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63486</v>
+        <v>63582</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>100190</v>
+        <v>97076</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.05703262600448212</v>
+        <v>0.05703262600448211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04546704060656482</v>
+        <v>0.04553568751694733</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07175342701385586</v>
+        <v>0.06952326175397171</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>212503</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>192234</v>
+        <v>193339</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>223969</v>
+        <v>224574</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8957747349867266</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8103324797205228</v>
+        <v>0.8149929770066507</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9441080769121594</v>
+        <v>0.9466594541722666</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1109</v>
@@ -7133,19 +7133,19 @@
         <v>801945</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>785444</v>
+        <v>786064</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>812598</v>
+        <v>813056</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.951160597452102</v>
+        <v>0.9511605974521022</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9315891722300543</v>
+        <v>0.9323236581796707</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9637957257863888</v>
+        <v>0.9643387551604584</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1210</v>
@@ -7154,19 +7154,19 @@
         <v>1014448</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>994588</v>
+        <v>989533</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1032712</v>
+        <v>1030792</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.9389987479977946</v>
+        <v>0.9389987479977947</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9206152199430133</v>
+        <v>0.9159367877818756</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9559039603438502</v>
+        <v>0.9541270585063797</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>24725</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13259</v>
+        <v>12654</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>44994</v>
+        <v>43889</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1042252650132735</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05589192308784074</v>
+        <v>0.05334054582773324</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1896675202794769</v>
+        <v>0.1850070229933492</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>48</v>
@@ -7204,19 +7204,19 @@
         <v>41178</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30525</v>
+        <v>30067</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57679</v>
+        <v>57059</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04883940254789795</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03620427421361146</v>
+        <v>0.03566124483954159</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06841082776994591</v>
+        <v>0.06767634182032931</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>59</v>
@@ -7225,19 +7225,19 @@
         <v>65903</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>47639</v>
+        <v>49559</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>85763</v>
+        <v>90818</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0610012520022052</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04409603965614973</v>
+        <v>0.04587294149362038</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0793847800569867</v>
+        <v>0.08406321221812453</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>3243379</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3209971</v>
+        <v>3207316</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3272669</v>
+        <v>3270876</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9434507030425481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9337328673728007</v>
+        <v>0.9329604888456537</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9519707700509125</v>
+        <v>0.9514490922699371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5043</v>
@@ -7350,19 +7350,19 @@
         <v>3478421</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3454312</v>
+        <v>3452941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3500012</v>
+        <v>3498906</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9579080073668998</v>
+        <v>0.9579080073669</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9512688901437819</v>
+        <v>0.9508912374811767</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.963853939918346</v>
+        <v>0.9635494014478677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8170</v>
@@ -7371,19 +7371,19 @@
         <v>6721799</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6681088</v>
+        <v>6680748</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6760893</v>
+        <v>6755962</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9508772093797758</v>
+        <v>0.9508772093797757</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9451180658767808</v>
+        <v>0.9450699375456222</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9564074596435552</v>
+        <v>0.9557099051729651</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>194404</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>165114</v>
+        <v>166907</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>227812</v>
+        <v>230467</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05654929695745189</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04802922994908747</v>
+        <v>0.04855090773006302</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06626713262719928</v>
+        <v>0.06703951115434618</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>194</v>
@@ -7421,19 +7421,19 @@
         <v>152847</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>131256</v>
+        <v>132362</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>176956</v>
+        <v>178327</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04209199263310014</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03614606008165396</v>
+        <v>0.03645059855213251</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04873110985621798</v>
+        <v>0.04910876251882362</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>362</v>
@@ -7442,19 +7442,19 @@
         <v>347252</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>308158</v>
+        <v>313089</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>387963</v>
+        <v>388303</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04912279062022415</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04359254035644469</v>
+        <v>0.04429009482703509</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0548819341232193</v>
+        <v>0.05493006245437804</v>
       </c>
     </row>
     <row r="24">
